--- a/graph-structure/macy-charts.xlsx
+++ b/graph-structure/macy-charts.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="120" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart 2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>initial p</t>
   </si>
@@ -91,8 +92,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -101,9 +104,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -132,17 +137,311 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Change</a:t>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Reinforcement</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> to Cooperation Propensity</a:t>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t> for 0.5 Payout as Function of Initial Probability</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart 1'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 1'!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0487499999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2125221048"/>
+        <c:axId val="2123612568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2125221048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>initial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> propability to cooperate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123612568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123612568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>change in probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125221048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Reinforcement for 0.5 Initial Probability as Function of Payout</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -160,7 +459,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Chart 2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -174,7 +473,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>'Chart 2'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -246,7 +545,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$22</c:f>
+              <c:f>'Chart 2'!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -430,16 +729,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -785,8 +1119,660 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <f>1/ABS(B2)</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>A2^C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f>1-D2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>E2*B2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="1">
+        <f>A2+F2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <f>A2+0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C22" si="0">1/ABS(B3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D22" si="1">A3^C3</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E22" si="2">1-D3</f>
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F22" si="3">E3*B3</f>
+        <v>0.49875000000000003</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G22" si="4">A3+F3</f>
+        <v>0.54875000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f t="shared" ref="A4:A22" si="5">A3+0.05</f>
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0.495</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f t="shared" si="5"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2.2500000000000006E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.48875000000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63875000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9375</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.46875</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f t="shared" si="5"/>
+        <v>0.35</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.12249999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.87750000000000006</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.43875000000000003</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.78875000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f t="shared" si="5"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.82000000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <f t="shared" si="5"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.20249999999999996</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.39875000000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.84875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <f t="shared" si="5"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <f>1/ABS(B12+0.0000000000000001)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.30249999999999994</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.34875</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.89874999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.64</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.42250000000000004</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.28874999999999995</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.93874999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.4900000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.25499999999999995</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.95500000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.56250000000000022</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.43749999999999978</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.21874999999999989</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <f t="shared" si="5"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000024</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35999999999999976</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999988</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.72250000000000036</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27749999999999964</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.13874999999999982</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98875000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <f t="shared" si="5"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.81000000000000039</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999961</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>9.4999999999999807E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99500000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.90250000000000052</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7499999999999476E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>4.8749999999999738E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99875000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
